--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288387.976574783</v>
+        <v>1286500.395058381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545843.5498766761</v>
+        <v>590394.5885742018</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>70.16551586115024</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.3770870099943</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.977754783587348</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>153.8100533453329</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>59.68935914213988</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.79871444074315</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>7.634490799661747</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>161.0094524652174</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>128.216555440145</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>250.5834849965316</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.98362271315973</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.97516701831636</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>69.27142932050988</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.042547546650695</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>12.10180512623864</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.726528083596349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.90175579878743</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>151.2754547091898</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.4066687370474</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>89.07224759472273</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>153.6054833647514</v>
+        <v>229.0573510537997</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.23735454510583</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.5141196058379</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>47.21871094483802</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.7610957752356</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>70.15391853502666</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689357</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2153.87838018277</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.719389522771</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>216.719389522771</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>216.719389522771</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>216.719389522771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>216.719389522771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="V4" t="n">
-        <v>216.719389522771</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="W4" t="n">
-        <v>216.719389522771</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="X4" t="n">
-        <v>216.719389522771</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.719389522771</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2405.650631901128</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.915470287066</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.915470287066</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.1849863041093</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>565.4931736355076</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1679.612634002136</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1321.346935395385</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>935.5586827971408</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>928.6131820479374</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>510.6493739461242</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>183.4546539821271</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
         <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1795.460519632919</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1795.460519632919</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1795.460519632919</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>223.2349977106393</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>223.2349977106393</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>73.11835829830358</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>223.2349977106393</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750122</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.765035414674</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983737</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1013257704668</v>
+        <v>674.8033259489735</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>674.8033259489735</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>526.8902323665803</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>380.00028486867</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>211.8249631884906</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286134</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286134</v>
+        <v>843.7395088768803</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>465.3907418918566</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1079.287811648745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1847.655958041207</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>407.7722390767948</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>259.8591454944017</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247864</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247864</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188995</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819389</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0340835819389</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2699138005285</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181191</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181191</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9005583181191</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609665</v>
+        <v>1346.11278095266</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550797</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181191</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181191</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181191</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.7185717878256</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>505.7823888599187</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247862</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247862</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247862</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>674.7185717878256</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X22" t="n">
-        <v>674.7185717878256</v>
+        <v>437.6964226305954</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.7185717878256</v>
+        <v>437.6964226305954</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>436.896710962637</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1119.973801443619</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>865.2893132377322</v>
+        <v>789.0753054710163</v>
       </c>
       <c r="W25" t="n">
-        <v>575.8721432007717</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="X25" t="n">
-        <v>575.8721432007717</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y25" t="n">
-        <v>575.8721432007717</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111987</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>731.6365520183392</v>
+        <v>954.8146123150542</v>
       </c>
       <c r="C28" t="n">
-        <v>562.7003690904323</v>
+        <v>785.8784293871473</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F28" t="n">
-        <v>415.810421592522</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609664</v>
+        <v>954.8146123150542</v>
       </c>
       <c r="X28" t="n">
-        <v>986.0022165609664</v>
+        <v>954.8146123150542</v>
       </c>
       <c r="Y28" t="n">
-        <v>765.2096374174361</v>
+        <v>954.8146123150542</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6452,25 +6452,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,22 +6537,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708653</v>
+        <v>567.5935089039624</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243292</v>
+        <v>454.4181912574265</v>
       </c>
       <c r="D31" t="n">
-        <v>404.2300237933643</v>
+        <v>360.0624171264617</v>
       </c>
       <c r="E31" t="n">
-        <v>404.2300237933643</v>
+        <v>360.0624171264617</v>
       </c>
       <c r="F31" t="n">
-        <v>313.1009415768248</v>
+        <v>360.0624171264617</v>
       </c>
       <c r="G31" t="n">
-        <v>200.686485178016</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1264.397812687227</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>1030.741507931637</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818936</v>
+        <v>858.5128223149906</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197342</v>
+        <v>693.4811084528313</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6786,10 +6786,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
@@ -7333,16 +7333,16 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7500,13 +7500,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,52 +7567,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,10 +7828,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9726,13 +9726,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>178.3913131276568</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>79.34404369770247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>145.8712808208854</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3192428966926</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.8581252684984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.53220684778174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>134.9618976893875</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>155.4253114448899</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.54322542348963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>132.6318690338259</v>
+        <v>57.18000134477765</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.5946256368315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>39.10135341237452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.491860794141</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>126.7804681602441</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958021.196357387</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958021.1963573872</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958021.196357387</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.196357387</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996714.2364959122</v>
+        <v>996714.2364959123</v>
       </c>
     </row>
     <row r="12">
@@ -26317,34 +26317,34 @@
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="F2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="G2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="I2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="I2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125333</v>
+        <v>427163.2442125334</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284579</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284582</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758436</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758476</v>
+        <v>787.7936905758877</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758424</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477245</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380839.1672798241</v>
+        <v>-380839.1672798243</v>
       </c>
       <c r="C6" t="n">
-        <v>209128.7119347203</v>
+        <v>209128.7119347201</v>
       </c>
       <c r="D6" t="n">
-        <v>209128.7119347201</v>
+        <v>209128.7119347202</v>
       </c>
       <c r="E6" t="n">
-        <v>-207354.6433915945</v>
+        <v>-207452.1025175664</v>
       </c>
       <c r="F6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="G6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="H6" t="n">
-        <v>317805.3930853018</v>
+        <v>317707.9339593296</v>
       </c>
       <c r="I6" t="n">
-        <v>317805.3930853018</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="J6" t="n">
-        <v>141382.1738927089</v>
+        <v>141284.7147667367</v>
       </c>
       <c r="K6" t="n">
-        <v>267420.0141746926</v>
+        <v>267401.5204367581</v>
       </c>
       <c r="L6" t="n">
-        <v>299782.3356259601</v>
+        <v>299782.3356259603</v>
       </c>
       <c r="M6" t="n">
-        <v>175324.2271929896</v>
+        <v>175324.2271929898</v>
       </c>
       <c r="N6" t="n">
         <v>310125.242426827</v>
@@ -26561,7 +26561,7 @@
         <v>310125.242426827</v>
       </c>
       <c r="P6" t="n">
-        <v>265962.6371239813</v>
+        <v>265962.6371239812</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,37 +26744,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>279.0754528562628</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>56.8608516460593</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.3320474754636</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>58.33548560468597</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>191.5348083661494</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>305.9323862377259</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>51.13608648480152</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23.71476080471626</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>77.16877347360335</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4503399334095</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>265.3067072236614</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2909036464245</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>148.1449823495587</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>77.26756385997055</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.5159911824346</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,10 +32324,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>131.4209907335603</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,22 +32546,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>353.032938635446</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>216.4869287318321</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>380.6284621420183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,10 +33260,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33272,10 +33272,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,13 +33506,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,13 +33740,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>315.882135905433</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>556.8619334744061</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>496.1456446097789</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>203.8913618981902</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>597.5166534426548</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,10 +35972,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>479.4216529937805</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>585.318904159031</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>343.1107267700517</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>704.1994919699999</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36920,10 +36920,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>548.168101429018</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>274.515464094862</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
